--- a/lab4/meas.xlsx
+++ b/lab4/meas.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,15 +406,15 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -448,8 +448,8 @@
         <v>1655857</v>
       </c>
       <c r="C2">
-        <f>B2*12.5 / 1000000</f>
-        <v>20.6982125</v>
+        <f>B2*20 / 1000000</f>
+        <v>33.117139999999999</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -458,8 +458,8 @@
         <v>1281885</v>
       </c>
       <c r="H2">
-        <f>G2*12.5 / 1000000</f>
-        <v>16.023562500000001</v>
+        <f>G2*20 / 1000000</f>
+        <v>25.637699999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -471,8 +471,8 @@
         <v>919325</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C11" si="0">B3*12.5 / 1000000</f>
-        <v>11.491562500000001</v>
+        <f t="shared" ref="C3:C14" si="0">B3*20 / 1000000</f>
+        <v>18.386500000000002</v>
       </c>
       <c r="F3">
         <f>F2+1</f>
@@ -482,8 +482,8 @@
         <v>774639</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="1">G3*12.5 / 1000000</f>
-        <v>9.6829874999999994</v>
+        <f t="shared" ref="H3:H14" si="1">G3*20 / 1000000</f>
+        <v>15.49278</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -496,7 +496,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>14.5761875</v>
+        <v>23.321899999999999</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F11" si="3">F3+1</f>
@@ -507,7 +507,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>16.28755</v>
+        <v>26.060079999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>15.6877625</v>
+        <v>25.10042</v>
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
@@ -531,7 +531,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>20.682812500000001</v>
+        <v>33.092500000000001</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -544,7 +544,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>16.015875000000001</v>
+        <v>25.625399999999999</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>24.317187499999999</v>
+        <v>38.907499999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>14.4996875</v>
+        <v>23.1995</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>16.4678</v>
+        <v>26.348479999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>16.008125</v>
+        <v>25.613</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
@@ -603,7 +603,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>15.068149999999999</v>
+        <v>24.10904</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -616,7 +616,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>26.168025</v>
+        <v>41.868839999999999</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>18.5367</v>
+        <v>29.658719999999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>13.6227125</v>
+        <v>21.796340000000001</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
@@ -651,7 +651,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>9.6259499999999996</v>
+        <v>15.40152</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>15.5144625</v>
+        <v>24.823139999999999</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
@@ -675,7 +675,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>13.6749375</v>
+        <v>21.879899999999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -687,8 +687,8 @@
         <v>919325</v>
       </c>
       <c r="C12">
-        <f>MIN(C2:C11)</f>
-        <v>11.491562500000001</v>
+        <f t="shared" si="0"/>
+        <v>18.386500000000002</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
@@ -698,8 +698,8 @@
         <v>770076</v>
       </c>
       <c r="H12">
-        <f>MIN(H2:H11)</f>
-        <v>9.6259499999999996</v>
+        <f t="shared" si="1"/>
+        <v>15.40152</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -711,8 +711,8 @@
         <v>1314260.8999999999</v>
       </c>
       <c r="C13">
-        <f>AVERAGE(C2:C11)</f>
-        <v>16.428261250000002</v>
+        <f t="shared" si="0"/>
+        <v>26.285218</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5</v>
@@ -722,8 +722,8 @@
         <v>1282941.1000000001</v>
       </c>
       <c r="H13">
-        <f>AVERAGE(H2:H11)</f>
-        <v>16.036763749999999</v>
+        <f t="shared" si="1"/>
+        <v>25.658822000000001</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -735,8 +735,8 @@
         <v>2093442</v>
       </c>
       <c r="C14">
-        <f>MAX(C2:C11)</f>
-        <v>26.168025</v>
+        <f t="shared" si="0"/>
+        <v>41.868839999999999</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>4</v>
@@ -746,8 +746,8 @@
         <v>1945375</v>
       </c>
       <c r="H14">
-        <f>MAX(H2:H11)</f>
-        <v>24.317187499999999</v>
+        <f t="shared" si="1"/>
+        <v>38.907499999999999</v>
       </c>
     </row>
   </sheetData>
